--- a/data/Auth_Data.xlsx
+++ b/data/Auth_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\SC2002_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6C86D8D1-F53D-4A46-A84B-73E16564535E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EC215A14-A98F-42F7-AC78-D064D6F40FAA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>P1001</t>
   </si>
@@ -52,12 +52,6 @@
     <t>A001</t>
   </si>
   <si>
-    <t>896ab1861ca94ada3f55516470a58a13</t>
-  </si>
-  <si>
-    <t>dd92ecffeb88486b5f62143eb23d42164b4512f9d57a6bbeb8f40e74f7d25f6e</t>
-  </si>
-  <si>
     <t>890eba8336601ea76c2dc0f5593201ba</t>
   </si>
   <si>
@@ -88,22 +82,34 @@
     <t>8aad139cbe3a9d8e01d9c8b0de3130b48e3871c90f320e724a2740c8ea3a7305</t>
   </si>
   <si>
-    <t>2fc4c518f72b0ad141dac3e5f35e06e2</t>
-  </si>
-  <si>
-    <t>7a5582ff977775a6afb82b31b5f20f563c88025129d0cc188a5b7dd6afb566d2</t>
-  </si>
-  <si>
-    <t>72fff9c9e914cba450935325b88a0a0f</t>
-  </si>
-  <si>
-    <t>87ecb123e9cb12f7e37d7a1e752e1b9eea4f25f95ce2db005912128d766a206f</t>
-  </si>
-  <si>
     <t>9e77801637aa3e26e81b828b2225b19f</t>
   </si>
   <si>
     <t>bfc2e49bf9b642e1a8466c96bae32b96877931ddba9e8d3c7fd6df36cdfc88fe</t>
+  </si>
+  <si>
+    <t>ea6697e927d5087d08b5218455deb794</t>
+  </si>
+  <si>
+    <t>a74c91fe1367f03956a8afb4bdd0c201982122e1cf3fdd09ea2445e8cccaf5a6</t>
+  </si>
+  <si>
+    <t>D999</t>
+  </si>
+  <si>
+    <t>e809a49832b33d35c47689286b1cfbaa</t>
+  </si>
+  <si>
+    <t>85da2685c4bb4f84dfcb126a3ca4bc958ab9c8c27b24c80485fb34731f64a71e</t>
+  </si>
+  <si>
+    <t>P999</t>
+  </si>
+  <si>
+    <t>f86bf1e8753ab0a04d292050e6841f0e</t>
+  </si>
+  <si>
+    <t>b2597e074e2ab8822cc65737403429b1f1fa8139313b0907e05c316816bba347</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -510,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -521,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -543,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/Auth_Data.xlsx
+++ b/data/Auth_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\SC2002_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EC215A14-A98F-42F7-AC78-D064D6F40FAA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CEE3D89E-6C01-4443-99C5-3E64C7D1840A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -94,22 +94,22 @@
     <t>a74c91fe1367f03956a8afb4bdd0c201982122e1cf3fdd09ea2445e8cccaf5a6</t>
   </si>
   <si>
+    <t>P999</t>
+  </si>
+  <si>
+    <t>4593aa16ba937124058be28ffb8d32ca</t>
+  </si>
+  <si>
+    <t>c7547f2ff43d6d79b78d1343ad49b181fc93f3320680db4a0c7734c19da652b1</t>
+  </si>
+  <si>
     <t>D999</t>
   </si>
   <si>
-    <t>e809a49832b33d35c47689286b1cfbaa</t>
-  </si>
-  <si>
-    <t>85da2685c4bb4f84dfcb126a3ca4bc958ab9c8c27b24c80485fb34731f64a71e</t>
-  </si>
-  <si>
-    <t>P999</t>
-  </si>
-  <si>
-    <t>f86bf1e8753ab0a04d292050e6841f0e</t>
-  </si>
-  <si>
-    <t>b2597e074e2ab8822cc65737403429b1f1fa8139313b0907e05c316816bba347</t>
+    <t>6deba86e6bbcba88fd88348250d93153</t>
+  </si>
+  <si>
+    <t>08560d220c5cfe9fe0e86abbb69fc069f3337e0adece119ffb55d63a01cb2e9a</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD10"/>
@@ -577,6 +577,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/Auth_Data.xlsx
+++ b/data/Auth_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\SC2002_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CEE3D89E-6C01-4443-99C5-3E64C7D1840A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{84622C60-24AE-472B-B6F8-E0CE1D2B16AD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>P1001</t>
   </si>
@@ -94,22 +94,133 @@
     <t>a74c91fe1367f03956a8afb4bdd0c201982122e1cf3fdd09ea2445e8cccaf5a6</t>
   </si>
   <si>
-    <t>P999</t>
-  </si>
-  <si>
-    <t>4593aa16ba937124058be28ffb8d32ca</t>
-  </si>
-  <si>
-    <t>c7547f2ff43d6d79b78d1343ad49b181fc93f3320680db4a0c7734c19da652b1</t>
-  </si>
-  <si>
     <t>D999</t>
   </si>
   <si>
-    <t>6deba86e6bbcba88fd88348250d93153</t>
-  </si>
-  <si>
-    <t>08560d220c5cfe9fe0e86abbb69fc069f3337e0adece119ffb55d63a01cb2e9a</t>
+    <t>c4c6f5ddbbc94846350909704ad60312</t>
+  </si>
+  <si>
+    <t>df47a31bef9ac8cd24a9546a154ba027b21c7ac2e69edaad5b40a2c08724c59c</t>
+  </si>
+  <si>
+    <t>59650ce5f72b2c647bf5185c0c3ede62</t>
+  </si>
+  <si>
+    <t>ca2ff1ffa2c08dcd4cebfbc7b56ef41b34723da6e11462a4ecfcd43341325c5b</t>
+  </si>
+  <si>
+    <t>2a856ba9f995bb7d24822b8d23f8783b</t>
+  </si>
+  <si>
+    <t>e68f3a92539672891b592132a5d82e7c45e7ed5b6651e812bd73804e0d3d57e3</t>
+  </si>
+  <si>
+    <t>D123</t>
+  </si>
+  <si>
+    <t>41f0277841d6bcb5cccf3f6fd0455180</t>
+  </si>
+  <si>
+    <t>06a487c1174665936af537c1ab40370040fa179aef94189535471440304c7245</t>
+  </si>
+  <si>
+    <t>a38d088643bda0ec91c93c2913bf0c6a</t>
+  </si>
+  <si>
+    <t>49d9cdc46ce8f1d6a6bd6f06fe8c31be15394ae2c923ee1c637e339363a0bc54</t>
+  </si>
+  <si>
+    <t>7763df4ca84015f21ef6193e9967cf5f</t>
+  </si>
+  <si>
+    <t>b251429d78768f3aff06c0ffbfb01cd660282fd8dd08e46c2ce857c10dbff33a</t>
+  </si>
+  <si>
+    <t>fb12ec1d85e94b479714d74d99675006</t>
+  </si>
+  <si>
+    <t>7d449967acb50e41910d407a8e5575178f0510446710a4a580e8193952b638c8</t>
+  </si>
+  <si>
+    <t>2683bb664803c638091b231d44434883</t>
+  </si>
+  <si>
+    <t>edb6f6aed3158751557118dd3539e1a3f245a60231219243ddfb823418486f9c</t>
+  </si>
+  <si>
+    <t>fd70a21a7f8b9cab7e674d71ff1ede6a</t>
+  </si>
+  <si>
+    <t>806873dbbbf6951e84dd81cdcd4af241d6f028995b823d17da6f0de7e0cfa3ed</t>
+  </si>
+  <si>
+    <t>b06feb92af6081e660203a0634a42dfb</t>
+  </si>
+  <si>
+    <t>dab0dadf4fe2566ceb4ce82051c34c75f19df2aba5a48e5577fc6aefe94c0632</t>
+  </si>
+  <si>
+    <t>6da132ac57df25f5ff009cfecef8d2ec</t>
+  </si>
+  <si>
+    <t>02ef19a196928d40d47e6ec4bdac7a28e8eb878ad1d793894a6d6a2e0ca5dc34</t>
+  </si>
+  <si>
+    <t>7615bb35ca6bcd5404fe3975fe465a9c</t>
+  </si>
+  <si>
+    <t>b9ec643e422fe7a503a9f710b03c4d8b0750d8c8194f1f256f65c533a9c3db38</t>
+  </si>
+  <si>
+    <t>c218ecb8b0a09c94cf429a1d5475a95c</t>
+  </si>
+  <si>
+    <t>e0ba45a6cdb15d0a6040eec670057fc3b86c367ada59d412076ef2b35863cacf</t>
+  </si>
+  <si>
+    <t>3907219bc748dac8622e6ba66fdf2570</t>
+  </si>
+  <si>
+    <t>4af74d2e254a757e6d23355a0ba91ba355072312bfebc09daea45668fc8e65f2</t>
+  </si>
+  <si>
+    <t>b4262dfc1d96b9f54d73fa63815da845</t>
+  </si>
+  <si>
+    <t>da901addfd009b6d41ca787da92674456e44e5ec73dbdb09add640e4896faac3</t>
+  </si>
+  <si>
+    <t>65f67c29d96dfa84a191a0dbf07d8ed1</t>
+  </si>
+  <si>
+    <t>aec94ab474003a867968b656255e801d4099e899bdd8168eca5e6911e486847f</t>
+  </si>
+  <si>
+    <t>d9bca09342d280b6c75e9c4ee94dfc03</t>
+  </si>
+  <si>
+    <t>168f8eba364bac6d568c59aec2634fd8d7579713c1c7dd2aa823455c3a0111ef</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>38957e1e8a256c19394ae39a1b20daee</t>
+  </si>
+  <si>
+    <t>cd15ebe1b4f3564b82e6f915edb429a41ed499995f7055b2c463373aa06bfa55</t>
+  </si>
+  <si>
+    <t>837303a8d35fb259ad524ea2280e2eea</t>
+  </si>
+  <si>
+    <t>ca8fdf407e035c2d45132e95bb987a055721b95b5324c00d36c42086e308e604</t>
+  </si>
+  <si>
+    <t>852e242ff7f5bfc70c7bc4e27900c38e</t>
+  </si>
+  <si>
+    <t>beb2f95d08911b2f17766fed381793303aa1a531279e16719cc127665b602329</t>
   </si>
 </sst>
 </file>
@@ -481,7 +592,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,13 +690,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
